--- a/io/input_test/putida_v2_3_all_fixed_flux_dGs.xlsx
+++ b/io/input_test/putida_v2_3_all_fixed_flux_dGs.xlsx
@@ -1256,7 +1256,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
